--- a/Cadastro Produtos.xlsx
+++ b/Cadastro Produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUÁRIO\0. Data Analyzes\0. GitHub\Vendas_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F55EC-B826-47B1-9B41-FDA1DB7A584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB7C970-B9EE-492D-9CE2-F3A822481A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2012,10 +2012,6 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2298,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C277" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F250" sqref="F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,7 +2304,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,7 +2326,7 @@
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>629</v>
       </c>
     </row>
@@ -2353,7 +2349,7 @@
       <c r="F2" s="6">
         <v>6.5</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2374,7 +2370,7 @@
       <c r="F3" s="7">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2395,7 +2391,7 @@
       <c r="F4" s="6">
         <v>11</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2416,7 +2412,7 @@
       <c r="F5" s="7">
         <v>11</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="3" t="s">
         <v>630</v>
       </c>
     </row>
@@ -2439,7 +2435,7 @@
       <c r="F6" s="6">
         <v>3.4</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2460,7 +2456,7 @@
       <c r="F7" s="7">
         <v>11</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2481,7 +2477,7 @@
       <c r="F8" s="6">
         <v>11</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2502,7 +2498,7 @@
       <c r="F9" s="7">
         <v>12.4</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="3" t="s">
         <v>631</v>
       </c>
     </row>
@@ -2525,7 +2521,7 @@
       <c r="F10" s="6">
         <v>12.4</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2546,7 +2542,7 @@
       <c r="F11" s="7">
         <v>12.4</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2567,7 +2563,7 @@
       <c r="F12" s="6">
         <v>172.2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2588,7 +2584,7 @@
       <c r="F13" s="7">
         <v>62.5</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2609,7 +2605,7 @@
       <c r="F14" s="6">
         <v>83.2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2630,7 +2626,7 @@
       <c r="F15" s="7">
         <v>145.6</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2651,7 +2647,7 @@
       <c r="F16" s="6">
         <v>378</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2672,7 +2668,7 @@
       <c r="F17" s="7">
         <v>71.400000000000006</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2693,7 +2689,7 @@
       <c r="F18" s="6">
         <v>214.6</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2709,12 +2705,12 @@
         <v>10</v>
       </c>
       <c r="E19" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F19" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G19" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -2735,7 +2731,7 @@
       <c r="F20" s="6">
         <v>201.6</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -2756,7 +2752,7 @@
       <c r="F21" s="7">
         <v>440</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2777,7 +2773,7 @@
       <c r="F22" s="6">
         <v>62.5</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2798,7 +2794,7 @@
       <c r="F23" s="7">
         <v>97.2</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -2819,7 +2815,7 @@
       <c r="F24" s="6">
         <v>185.6</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -2840,7 +2836,7 @@
       <c r="F25" s="7">
         <v>192</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2861,7 +2857,7 @@
       <c r="F26" s="6">
         <v>144</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -2882,7 +2878,7 @@
       <c r="F27" s="7">
         <v>125</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2903,7 +2899,7 @@
       <c r="F28" s="6">
         <v>91.2</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -2924,7 +2920,7 @@
       <c r="F29" s="7">
         <v>140</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -2945,7 +2941,7 @@
       <c r="F30" s="6">
         <v>120</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -2966,7 +2962,7 @@
       <c r="F31" s="7">
         <v>56</v>
       </c>
-      <c r="G31" s="10"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -2987,7 +2983,7 @@
       <c r="F32" s="6">
         <v>36.299999999999997</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -3008,7 +3004,7 @@
       <c r="F33" s="7">
         <v>59.4</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3029,7 +3025,7 @@
       <c r="F34" s="6">
         <v>96.8</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -3050,7 +3046,7 @@
       <c r="F35" s="7">
         <v>187.2</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -3071,7 +3067,7 @@
       <c r="F36" s="6">
         <v>11.6</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -3092,7 +3088,7 @@
       <c r="F37" s="7">
         <v>15.5</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -3113,7 +3109,7 @@
       <c r="F38" s="6">
         <v>7.9</v>
       </c>
-      <c r="G38" s="9"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -3134,7 +3130,7 @@
       <c r="F39" s="7">
         <v>23.9</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -3155,7 +3151,7 @@
       <c r="F40" s="6">
         <v>72.8</v>
       </c>
-      <c r="G40" s="9"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -3176,7 +3172,7 @@
       <c r="F41" s="7">
         <v>72.5</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -3197,7 +3193,7 @@
       <c r="F42" s="6">
         <v>110.2</v>
       </c>
-      <c r="G42" s="9"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -3218,7 +3214,7 @@
       <c r="F43" s="7">
         <v>83.2</v>
       </c>
-      <c r="G43" s="10"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3239,7 +3235,7 @@
       <c r="F44" s="6">
         <v>329.7</v>
       </c>
-      <c r="G44" s="9"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -3260,7 +3256,7 @@
       <c r="F45" s="7">
         <v>287.8</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -3281,7 +3277,7 @@
       <c r="F46" s="6">
         <v>377.7</v>
       </c>
-      <c r="G46" s="9"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -3302,7 +3298,7 @@
       <c r="F47" s="7">
         <v>367.8</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3323,7 +3319,7 @@
       <c r="F48" s="6">
         <v>269.7</v>
       </c>
-      <c r="G48" s="9"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -3344,7 +3340,7 @@
       <c r="F49" s="7">
         <v>329.7</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -3365,7 +3361,7 @@
       <c r="F50" s="6">
         <v>298.8</v>
       </c>
-      <c r="G50" s="9"/>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3386,7 +3382,7 @@
       <c r="F51" s="7">
         <v>329.8</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -3407,7 +3403,7 @@
       <c r="F52" s="6">
         <v>215.7</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -3428,7 +3424,7 @@
       <c r="F53" s="7">
         <v>197.8</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -3449,7 +3445,7 @@
       <c r="F54" s="6">
         <v>329.7</v>
       </c>
-      <c r="G54" s="9"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -3470,7 +3466,7 @@
       <c r="F55" s="7">
         <v>167.8</v>
       </c>
-      <c r="G55" s="10"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -3491,7 +3487,7 @@
       <c r="F56" s="6">
         <v>215.7</v>
       </c>
-      <c r="G56" s="9"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -3512,7 +3508,7 @@
       <c r="F57" s="7">
         <v>269.7</v>
       </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -3533,7 +3529,7 @@
       <c r="F58" s="6">
         <v>115.8</v>
       </c>
-      <c r="G58" s="9"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -3554,7 +3550,7 @@
       <c r="F59" s="7">
         <v>138.9</v>
       </c>
-      <c r="G59" s="10"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -3575,7 +3571,7 @@
       <c r="F60" s="6">
         <v>115.8</v>
       </c>
-      <c r="G60" s="9"/>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -3596,7 +3592,7 @@
       <c r="F61" s="7">
         <v>256.2</v>
       </c>
-      <c r="G61" s="10"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -3617,7 +3613,7 @@
       <c r="F62" s="6">
         <v>304.2</v>
       </c>
-      <c r="G62" s="9"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3638,7 +3634,7 @@
       <c r="F63" s="7">
         <v>362.2</v>
       </c>
-      <c r="G63" s="10"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -3659,7 +3655,7 @@
       <c r="F64" s="6">
         <v>347.8</v>
       </c>
-      <c r="G64" s="9"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3680,7 +3676,7 @@
       <c r="F65" s="7">
         <v>178.3</v>
       </c>
-      <c r="G65" s="10"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -3701,7 +3697,7 @@
       <c r="F66" s="6">
         <v>256.2</v>
       </c>
-      <c r="G66" s="9"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -3722,7 +3718,7 @@
       <c r="F67" s="7">
         <v>252.8</v>
       </c>
-      <c r="G67" s="10"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -3743,7 +3739,7 @@
       <c r="F68" s="6">
         <v>296.8</v>
       </c>
-      <c r="G68" s="9"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
@@ -3764,7 +3760,7 @@
       <c r="F69" s="7">
         <v>181.7</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -3785,7 +3781,7 @@
       <c r="F70" s="6">
         <v>157.30000000000001</v>
       </c>
-      <c r="G70" s="9"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -3806,7 +3802,7 @@
       <c r="F71" s="7">
         <v>256.2</v>
       </c>
-      <c r="G71" s="10"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -3827,7 +3823,7 @@
       <c r="F72" s="6">
         <v>115.3</v>
       </c>
-      <c r="G72" s="9"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -3848,7 +3844,7 @@
       <c r="F73" s="7">
         <v>181.7</v>
       </c>
-      <c r="G73" s="10"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -3869,7 +3865,7 @@
       <c r="F74" s="6">
         <v>178.3</v>
       </c>
-      <c r="G74" s="9"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -3890,7 +3886,7 @@
       <c r="F75" s="7">
         <v>137.80000000000001</v>
       </c>
-      <c r="G75" s="10"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -3911,7 +3907,7 @@
       <c r="F76" s="6">
         <v>181.7</v>
       </c>
-      <c r="G76" s="9"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3932,7 +3928,7 @@
       <c r="F77" s="7">
         <v>120.8</v>
       </c>
-      <c r="G77" s="10"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -3953,7 +3949,7 @@
       <c r="F78" s="6">
         <v>142.80000000000001</v>
       </c>
-      <c r="G78" s="9"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -3974,7 +3970,7 @@
       <c r="F79" s="7">
         <v>103.3</v>
       </c>
-      <c r="G79" s="10"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -3995,7 +3991,7 @@
       <c r="F80" s="6">
         <v>129.69999999999999</v>
       </c>
-      <c r="G80" s="9"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
@@ -4016,7 +4012,7 @@
       <c r="F81" s="7">
         <v>124.8</v>
       </c>
-      <c r="G81" s="10"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -4037,7 +4033,7 @@
       <c r="F82" s="6">
         <v>142.69999999999999</v>
       </c>
-      <c r="G82" s="9"/>
+      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -4058,7 +4054,7 @@
       <c r="F83" s="7">
         <v>48</v>
       </c>
-      <c r="G83" s="10"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -4079,7 +4075,7 @@
       <c r="F84" s="6">
         <v>134.4</v>
       </c>
-      <c r="G84" s="9"/>
+      <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -4100,7 +4096,7 @@
       <c r="F85" s="7">
         <v>107.5</v>
       </c>
-      <c r="G85" s="10"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -4121,7 +4117,7 @@
       <c r="F86" s="6">
         <v>41.5</v>
       </c>
-      <c r="G86" s="9"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -4142,7 +4138,7 @@
       <c r="F87" s="7">
         <v>65.8</v>
       </c>
-      <c r="G87" s="10"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -4163,7 +4159,7 @@
       <c r="F88" s="6">
         <v>49.2</v>
       </c>
-      <c r="G88" s="9"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4184,7 +4180,7 @@
       <c r="F89" s="7">
         <v>90.1</v>
       </c>
-      <c r="G89" s="10"/>
+      <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -4205,7 +4201,7 @@
       <c r="F90" s="6">
         <v>199.8</v>
       </c>
-      <c r="G90" s="9"/>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
@@ -4226,7 +4222,7 @@
       <c r="F91" s="7">
         <v>64.8</v>
       </c>
-      <c r="G91" s="10"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
@@ -4247,7 +4243,7 @@
       <c r="F92" s="6">
         <v>217.8</v>
       </c>
-      <c r="G92" s="9"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -4268,7 +4264,7 @@
       <c r="F93" s="7">
         <v>111.1</v>
       </c>
-      <c r="G93" s="10"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -4289,7 +4285,7 @@
       <c r="F94" s="6">
         <v>270</v>
       </c>
-      <c r="G94" s="9"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -4310,7 +4306,7 @@
       <c r="F95" s="7">
         <v>100.5</v>
       </c>
-      <c r="G95" s="10"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -4331,7 +4327,7 @@
       <c r="F96" s="6">
         <v>189</v>
       </c>
-      <c r="G96" s="9"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
@@ -4352,7 +4348,7 @@
       <c r="F97" s="7">
         <v>14.5</v>
       </c>
-      <c r="G97" s="10"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -4373,7 +4369,7 @@
       <c r="F98" s="6">
         <v>15.6</v>
       </c>
-      <c r="G98" s="9"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -4394,7 +4390,7 @@
       <c r="F99" s="7">
         <v>228.8</v>
       </c>
-      <c r="G99" s="10"/>
+      <c r="G99" s="3"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -4415,7 +4411,7 @@
       <c r="F100" s="6">
         <v>66</v>
       </c>
-      <c r="G100" s="9"/>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -4436,7 +4432,7 @@
       <c r="F101" s="7">
         <v>96</v>
       </c>
-      <c r="G101" s="10"/>
+      <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
@@ -4457,7 +4453,7 @@
       <c r="F102" s="6">
         <v>28</v>
       </c>
-      <c r="G102" s="9"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -4478,7 +4474,7 @@
       <c r="F103" s="7">
         <v>31.5</v>
       </c>
-      <c r="G103" s="10"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
@@ -4499,7 +4495,7 @@
       <c r="F104" s="6">
         <v>56</v>
       </c>
-      <c r="G104" s="9"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
@@ -4520,7 +4516,7 @@
       <c r="F105" s="7">
         <v>81</v>
       </c>
-      <c r="G105" s="10"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -4541,7 +4537,7 @@
       <c r="F106" s="6">
         <v>27</v>
       </c>
-      <c r="G106" s="9"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -4562,7 +4558,7 @@
       <c r="F107" s="7">
         <v>176</v>
       </c>
-      <c r="G107" s="10"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -4583,7 +4579,7 @@
       <c r="F108" s="6">
         <v>198</v>
       </c>
-      <c r="G108" s="9"/>
+      <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -4604,7 +4600,7 @@
       <c r="F109" s="7">
         <v>31.2</v>
       </c>
-      <c r="G109" s="10"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
@@ -4625,7 +4621,7 @@
       <c r="F110" s="6">
         <v>26.97</v>
       </c>
-      <c r="G110" s="9"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
@@ -4646,7 +4642,7 @@
       <c r="F111" s="7">
         <v>92.81</v>
       </c>
-      <c r="G111" s="10"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -4667,7 +4663,7 @@
       <c r="F112" s="6">
         <v>74.5</v>
       </c>
-      <c r="G112" s="9"/>
+      <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
@@ -4688,7 +4684,7 @@
       <c r="F113" s="7">
         <v>133.30000000000001</v>
       </c>
-      <c r="G113" s="10"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
@@ -4709,7 +4705,7 @@
       <c r="F114" s="6">
         <v>42.9</v>
       </c>
-      <c r="G114" s="9"/>
+      <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
@@ -4730,7 +4726,7 @@
       <c r="F115" s="7">
         <v>56.9</v>
       </c>
-      <c r="G115" s="10"/>
+      <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
@@ -4751,7 +4747,7 @@
       <c r="F116" s="6">
         <v>96.8</v>
       </c>
-      <c r="G116" s="9"/>
+      <c r="G116" s="2"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
@@ -4772,7 +4768,7 @@
       <c r="F117" s="7">
         <v>75.7</v>
       </c>
-      <c r="G117" s="10"/>
+      <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -4793,7 +4789,7 @@
       <c r="F118" s="6">
         <v>38.96</v>
       </c>
-      <c r="G118" s="9"/>
+      <c r="G118" s="2"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -4814,7 +4810,7 @@
       <c r="F119" s="7">
         <v>104.8</v>
       </c>
-      <c r="G119" s="10"/>
+      <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -4835,7 +4831,7 @@
       <c r="F120" s="6">
         <v>145.28</v>
       </c>
-      <c r="G120" s="9"/>
+      <c r="G120" s="2"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
@@ -4856,7 +4852,7 @@
       <c r="F121" s="7">
         <v>49.98</v>
       </c>
-      <c r="G121" s="10"/>
+      <c r="G121" s="3"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
@@ -4877,7 +4873,7 @@
       <c r="F122" s="6">
         <v>122.27</v>
       </c>
-      <c r="G122" s="9"/>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -4898,7 +4894,7 @@
       <c r="F123" s="7">
         <v>18.600000000000001</v>
       </c>
-      <c r="G123" s="10"/>
+      <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
@@ -4919,7 +4915,7 @@
       <c r="F124" s="6">
         <v>25.7</v>
       </c>
-      <c r="G124" s="9"/>
+      <c r="G124" s="2"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -4940,7 +4936,7 @@
       <c r="F125" s="7">
         <v>224.7</v>
       </c>
-      <c r="G125" s="10"/>
+      <c r="G125" s="3"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -4961,7 +4957,7 @@
       <c r="F126" s="6">
         <v>109.6</v>
       </c>
-      <c r="G126" s="9"/>
+      <c r="G126" s="2"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -4982,7 +4978,7 @@
       <c r="F127" s="7">
         <v>415.7</v>
       </c>
-      <c r="G127" s="10"/>
+      <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
@@ -5003,7 +4999,7 @@
       <c r="F128" s="6">
         <v>131.80000000000001</v>
       </c>
-      <c r="G128" s="9"/>
+      <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
@@ -5024,7 +5020,7 @@
       <c r="F129" s="7">
         <v>143.1</v>
       </c>
-      <c r="G129" s="10"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
@@ -5045,7 +5041,7 @@
       <c r="F130" s="6">
         <v>483.8</v>
       </c>
-      <c r="G130" s="9"/>
+      <c r="G130" s="2"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
@@ -5066,7 +5062,7 @@
       <c r="F131" s="7">
         <v>285.8</v>
       </c>
-      <c r="G131" s="10"/>
+      <c r="G131" s="3"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -5087,7 +5083,7 @@
       <c r="F132" s="6">
         <v>132</v>
       </c>
-      <c r="G132" s="9"/>
+      <c r="G132" s="2"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
@@ -5108,7 +5104,7 @@
       <c r="F133" s="7">
         <v>170.2</v>
       </c>
-      <c r="G133" s="10"/>
+      <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -5129,7 +5125,7 @@
       <c r="F134" s="6">
         <v>210</v>
       </c>
-      <c r="G134" s="9"/>
+      <c r="G134" s="2"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
@@ -5150,7 +5146,7 @@
       <c r="F135" s="7">
         <v>259.7</v>
       </c>
-      <c r="G135" s="10"/>
+      <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -5171,7 +5167,7 @@
       <c r="F136" s="6">
         <v>12.4</v>
       </c>
-      <c r="G136" s="9"/>
+      <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
@@ -5192,7 +5188,7 @@
       <c r="F137" s="7">
         <v>37.299999999999997</v>
       </c>
-      <c r="G137" s="10"/>
+      <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
@@ -5213,7 +5209,7 @@
       <c r="F138" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G138" s="9"/>
+      <c r="G138" s="2"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
@@ -5234,7 +5230,7 @@
       <c r="F139" s="7">
         <v>11</v>
       </c>
-      <c r="G139" s="10"/>
+      <c r="G139" s="3"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
@@ -5255,7 +5251,7 @@
       <c r="F140" s="6">
         <v>11.5</v>
       </c>
-      <c r="G140" s="9"/>
+      <c r="G140" s="2"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
@@ -5276,7 +5272,7 @@
       <c r="F141" s="7">
         <v>34.799999999999997</v>
       </c>
-      <c r="G141" s="10"/>
+      <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
@@ -5297,7 +5293,7 @@
       <c r="F142" s="6">
         <v>41.6</v>
       </c>
-      <c r="G142" s="9"/>
+      <c r="G142" s="2"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
@@ -5318,7 +5314,7 @@
       <c r="F143" s="7">
         <v>467.2</v>
       </c>
-      <c r="G143" s="10"/>
+      <c r="G143" s="3"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
@@ -5339,7 +5335,7 @@
       <c r="F144" s="6">
         <v>11</v>
       </c>
-      <c r="G144" s="9"/>
+      <c r="G144" s="2"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
@@ -5360,7 +5356,7 @@
       <c r="F145" s="7">
         <v>11</v>
       </c>
-      <c r="G145" s="10"/>
+      <c r="G145" s="3"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -5381,7 +5377,7 @@
       <c r="F146" s="6">
         <v>11</v>
       </c>
-      <c r="G146" s="9"/>
+      <c r="G146" s="2"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -5402,7 +5398,7 @@
       <c r="F147" s="7">
         <v>11</v>
       </c>
-      <c r="G147" s="10"/>
+      <c r="G147" s="3"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
@@ -5423,7 +5419,7 @@
       <c r="F148" s="6">
         <v>12.4</v>
       </c>
-      <c r="G148" s="9"/>
+      <c r="G148" s="2"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
@@ -5444,7 +5440,7 @@
       <c r="F149" s="7">
         <v>12.4</v>
       </c>
-      <c r="G149" s="10"/>
+      <c r="G149" s="3"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -5465,7 +5461,7 @@
       <c r="F150" s="6">
         <v>12.4</v>
       </c>
-      <c r="G150" s="9"/>
+      <c r="G150" s="2"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
@@ -5486,7 +5482,7 @@
       <c r="F151" s="7">
         <v>12.4</v>
       </c>
-      <c r="G151" s="10"/>
+      <c r="G151" s="3"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -5507,7 +5503,7 @@
       <c r="F152" s="6">
         <v>4.5</v>
       </c>
-      <c r="G152" s="9"/>
+      <c r="G152" s="2"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
@@ -5528,7 +5524,7 @@
       <c r="F153" s="7">
         <v>19.7</v>
       </c>
-      <c r="G153" s="10"/>
+      <c r="G153" s="3"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -5549,7 +5545,7 @@
       <c r="F154" s="6">
         <v>19.7</v>
       </c>
-      <c r="G154" s="9"/>
+      <c r="G154" s="2"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
@@ -5570,7 +5566,7 @@
       <c r="F155" s="7">
         <v>19.7</v>
       </c>
-      <c r="G155" s="10"/>
+      <c r="G155" s="3"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -5591,7 +5587,7 @@
       <c r="F156" s="6">
         <v>19.7</v>
       </c>
-      <c r="G156" s="9"/>
+      <c r="G156" s="2"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
@@ -5612,7 +5608,7 @@
       <c r="F157" s="7">
         <v>20</v>
       </c>
-      <c r="G157" s="10"/>
+      <c r="G157" s="3"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
@@ -5633,7 +5629,7 @@
       <c r="F158" s="6">
         <v>20</v>
       </c>
-      <c r="G158" s="9"/>
+      <c r="G158" s="2"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -5654,7 +5650,7 @@
       <c r="F159" s="7">
         <v>20</v>
       </c>
-      <c r="G159" s="10"/>
+      <c r="G159" s="3"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
@@ -5675,7 +5671,7 @@
       <c r="F160" s="6">
         <v>20</v>
       </c>
-      <c r="G160" s="9"/>
+      <c r="G160" s="2"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
@@ -5696,7 +5692,7 @@
       <c r="F161" s="7">
         <v>19.7</v>
       </c>
-      <c r="G161" s="10"/>
+      <c r="G161" s="3"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
@@ -5717,7 +5713,7 @@
       <c r="F162" s="6">
         <v>19.7</v>
       </c>
-      <c r="G162" s="9"/>
+      <c r="G162" s="2"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
@@ -5738,7 +5734,7 @@
       <c r="F163" s="7">
         <v>19.7</v>
       </c>
-      <c r="G163" s="10"/>
+      <c r="G163" s="3"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -5759,7 +5755,7 @@
       <c r="F164" s="6">
         <v>19.7</v>
       </c>
-      <c r="G164" s="9"/>
+      <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
@@ -5780,7 +5776,7 @@
       <c r="F165" s="7">
         <v>1.2</v>
       </c>
-      <c r="G165" s="10"/>
+      <c r="G165" s="3"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
@@ -5801,7 +5797,7 @@
       <c r="F166" s="6">
         <v>1.3</v>
       </c>
-      <c r="G166" s="9"/>
+      <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
@@ -5822,7 +5818,7 @@
       <c r="F167" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G167" s="10"/>
+      <c r="G167" s="3"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
@@ -5843,7 +5839,7 @@
       <c r="F168" s="6">
         <v>29.7</v>
       </c>
-      <c r="G168" s="9"/>
+      <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
@@ -5864,7 +5860,7 @@
       <c r="F169" s="7">
         <v>20</v>
       </c>
-      <c r="G169" s="10"/>
+      <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
@@ -5885,7 +5881,7 @@
       <c r="F170" s="6">
         <v>20</v>
       </c>
-      <c r="G170" s="9"/>
+      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
@@ -5906,7 +5902,7 @@
       <c r="F171" s="7">
         <v>59.8</v>
       </c>
-      <c r="G171" s="10"/>
+      <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -5927,7 +5923,7 @@
       <c r="F172" s="6">
         <v>38.5</v>
       </c>
-      <c r="G172" s="9"/>
+      <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
@@ -5948,7 +5944,7 @@
       <c r="F173" s="7">
         <v>2</v>
       </c>
-      <c r="G173" s="10"/>
+      <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
@@ -5969,7 +5965,7 @@
       <c r="F174" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G174" s="9"/>
+      <c r="G174" s="2"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
@@ -5990,7 +5986,7 @@
       <c r="F175" s="7">
         <v>221.2</v>
       </c>
-      <c r="G175" s="10"/>
+      <c r="G175" s="3"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
@@ -6011,7 +6007,7 @@
       <c r="F176" s="6">
         <v>20</v>
       </c>
-      <c r="G176" s="9"/>
+      <c r="G176" s="2"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
@@ -6032,7 +6028,7 @@
       <c r="F177" s="7">
         <v>20</v>
       </c>
-      <c r="G177" s="10"/>
+      <c r="G177" s="3"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -6053,7 +6049,7 @@
       <c r="F178" s="6">
         <v>6.1</v>
       </c>
-      <c r="G178" s="9"/>
+      <c r="G178" s="2"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
@@ -6074,7 +6070,7 @@
       <c r="F179" s="7">
         <v>6.1</v>
       </c>
-      <c r="G179" s="10"/>
+      <c r="G179" s="3"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
@@ -6095,7 +6091,7 @@
       <c r="F180" s="6">
         <v>159.80000000000001</v>
       </c>
-      <c r="G180" s="9"/>
+      <c r="G180" s="2"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
@@ -6116,7 +6112,7 @@
       <c r="F181" s="7">
         <v>41.8</v>
       </c>
-      <c r="G181" s="10"/>
+      <c r="G181" s="3"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
@@ -6137,7 +6133,7 @@
       <c r="F182" s="6">
         <v>237.3</v>
       </c>
-      <c r="G182" s="9"/>
+      <c r="G182" s="2"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
@@ -6158,7 +6154,7 @@
       <c r="F183" s="7">
         <v>419.7</v>
       </c>
-      <c r="G183" s="10"/>
+      <c r="G183" s="3"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
@@ -6179,7 +6175,7 @@
       <c r="F184" s="6">
         <v>688.2</v>
       </c>
-      <c r="G184" s="9"/>
+      <c r="G184" s="2"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
@@ -6200,7 +6196,7 @@
       <c r="F185" s="7">
         <v>1280</v>
       </c>
-      <c r="G185" s="10"/>
+      <c r="G185" s="3"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -6221,7 +6217,7 @@
       <c r="F186" s="6">
         <v>599.79999999999995</v>
       </c>
-      <c r="G186" s="9"/>
+      <c r="G186" s="2"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
@@ -6242,7 +6238,7 @@
       <c r="F187" s="7">
         <v>337.7</v>
       </c>
-      <c r="G187" s="10"/>
+      <c r="G187" s="3"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
@@ -6258,12 +6254,12 @@
         <v>23</v>
       </c>
       <c r="E188" s="6">
-        <v>5999</v>
+        <v>2999</v>
       </c>
       <c r="F188" s="6">
         <v>1679.7</v>
       </c>
-      <c r="G188" s="9"/>
+      <c r="G188" s="2"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
@@ -6284,7 +6280,7 @@
       <c r="F189" s="7">
         <v>240</v>
       </c>
-      <c r="G189" s="10"/>
+      <c r="G189" s="3"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
@@ -6305,7 +6301,7 @@
       <c r="F190" s="6">
         <v>36.6</v>
       </c>
-      <c r="G190" s="9"/>
+      <c r="G190" s="2"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
@@ -6326,7 +6322,7 @@
       <c r="F191" s="7">
         <v>110</v>
       </c>
-      <c r="G191" s="10"/>
+      <c r="G191" s="3"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
@@ -6347,7 +6343,7 @@
       <c r="F192" s="6">
         <v>69.599999999999994</v>
       </c>
-      <c r="G192" s="9"/>
+      <c r="G192" s="2"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
@@ -6368,7 +6364,7 @@
       <c r="F193" s="7">
         <v>65</v>
       </c>
-      <c r="G193" s="10"/>
+      <c r="G193" s="3"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
@@ -6389,7 +6385,7 @@
       <c r="F194" s="6">
         <v>82.3</v>
       </c>
-      <c r="G194" s="9"/>
+      <c r="G194" s="2"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
@@ -6410,7 +6406,7 @@
       <c r="F195" s="7">
         <v>45.6</v>
       </c>
-      <c r="G195" s="10"/>
+      <c r="G195" s="3"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
@@ -6431,7 +6427,7 @@
       <c r="F196" s="6">
         <v>93.6</v>
       </c>
-      <c r="G196" s="9"/>
+      <c r="G196" s="2"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
@@ -6452,7 +6448,7 @@
       <c r="F197" s="7">
         <v>148.5</v>
       </c>
-      <c r="G197" s="10"/>
+      <c r="G197" s="3"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
@@ -6473,7 +6469,7 @@
       <c r="F198" s="6">
         <v>240</v>
       </c>
-      <c r="G198" s="9"/>
+      <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -6494,7 +6490,7 @@
       <c r="F199" s="7">
         <v>726</v>
       </c>
-      <c r="G199" s="10"/>
+      <c r="G199" s="3"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
@@ -6515,7 +6511,7 @@
       <c r="F200" s="6">
         <v>138</v>
       </c>
-      <c r="G200" s="9"/>
+      <c r="G200" s="2"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
@@ -6536,7 +6532,7 @@
       <c r="F201" s="7">
         <v>131.80000000000001</v>
       </c>
-      <c r="G201" s="10"/>
+      <c r="G201" s="3"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
@@ -6557,7 +6553,7 @@
       <c r="F202" s="6">
         <v>280.8</v>
       </c>
-      <c r="G202" s="9"/>
+      <c r="G202" s="2"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
@@ -6578,7 +6574,7 @@
       <c r="F203" s="7">
         <v>182</v>
       </c>
-      <c r="G203" s="10"/>
+      <c r="G203" s="3"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
@@ -6599,7 +6595,7 @@
       <c r="F204" s="6">
         <v>179.2</v>
       </c>
-      <c r="G204" s="9"/>
+      <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
@@ -6620,7 +6616,7 @@
       <c r="F205" s="7">
         <v>110</v>
       </c>
-      <c r="G205" s="10"/>
+      <c r="G205" s="3"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
@@ -6641,7 +6637,7 @@
       <c r="F206" s="6">
         <v>120</v>
       </c>
-      <c r="G206" s="9"/>
+      <c r="G206" s="2"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
@@ -6662,7 +6658,7 @@
       <c r="F207" s="7">
         <v>118.8</v>
       </c>
-      <c r="G207" s="10"/>
+      <c r="G207" s="3"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
@@ -6683,7 +6679,7 @@
       <c r="F208" s="6">
         <v>92.8</v>
       </c>
-      <c r="G208" s="9"/>
+      <c r="G208" s="2"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
@@ -6704,7 +6700,7 @@
       <c r="F209" s="7">
         <v>239.2</v>
       </c>
-      <c r="G209" s="10"/>
+      <c r="G209" s="3"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
@@ -6725,7 +6721,7 @@
       <c r="F210" s="6">
         <v>160</v>
       </c>
-      <c r="G210" s="9"/>
+      <c r="G210" s="2"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -6746,7 +6742,7 @@
       <c r="F211" s="7">
         <v>55.2</v>
       </c>
-      <c r="G211" s="10"/>
+      <c r="G211" s="3"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
@@ -6767,7 +6763,7 @@
       <c r="F212" s="6">
         <v>176.7</v>
       </c>
-      <c r="G212" s="9"/>
+      <c r="G212" s="2"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
@@ -6788,7 +6784,7 @@
       <c r="F213" s="7">
         <v>112</v>
       </c>
-      <c r="G213" s="10"/>
+      <c r="G213" s="3"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
@@ -6809,7 +6805,7 @@
       <c r="F214" s="6">
         <v>107.6</v>
       </c>
-      <c r="G214" s="9"/>
+      <c r="G214" s="2"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
@@ -6830,7 +6826,7 @@
       <c r="F215" s="7">
         <v>260.7</v>
       </c>
-      <c r="G215" s="10"/>
+      <c r="G215" s="3"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
@@ -6851,7 +6847,7 @@
       <c r="F216" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G216" s="9"/>
+      <c r="G216" s="2"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
@@ -6872,7 +6868,7 @@
       <c r="F217" s="7">
         <v>2.5</v>
       </c>
-      <c r="G217" s="10"/>
+      <c r="G217" s="3"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
@@ -6893,7 +6889,7 @@
       <c r="F218" s="6">
         <v>52</v>
       </c>
-      <c r="G218" s="9"/>
+      <c r="G218" s="2"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
@@ -6914,7 +6910,7 @@
       <c r="F219" s="7">
         <v>349</v>
       </c>
-      <c r="G219" s="10"/>
+      <c r="G219" s="3"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
@@ -6935,7 +6931,7 @@
       <c r="F220" s="6">
         <v>643.29999999999995</v>
       </c>
-      <c r="G220" s="9"/>
+      <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
@@ -6956,7 +6952,7 @@
       <c r="F221" s="7">
         <v>239.1</v>
       </c>
-      <c r="G221" s="10"/>
+      <c r="G221" s="3"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
@@ -6977,7 +6973,7 @@
       <c r="F222" s="6">
         <v>527.29999999999995</v>
       </c>
-      <c r="G222" s="9"/>
+      <c r="G222" s="2"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -6998,7 +6994,7 @@
       <c r="F223" s="7">
         <v>5.8</v>
       </c>
-      <c r="G223" s="10"/>
+      <c r="G223" s="3"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
@@ -7019,7 +7015,7 @@
       <c r="F224" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G224" s="9"/>
+      <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
@@ -7040,7 +7036,7 @@
       <c r="F225" s="7">
         <v>45.5</v>
       </c>
-      <c r="G225" s="10"/>
+      <c r="G225" s="3"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
@@ -7061,7 +7057,7 @@
       <c r="F226" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G226" s="9"/>
+      <c r="G226" s="2"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
@@ -7082,7 +7078,7 @@
       <c r="F227" s="7">
         <v>1.8</v>
       </c>
-      <c r="G227" s="10"/>
+      <c r="G227" s="3"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
@@ -7103,7 +7099,7 @@
       <c r="F228" s="6">
         <v>46.8</v>
       </c>
-      <c r="G228" s="9"/>
+      <c r="G228" s="2"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
@@ -7124,7 +7120,7 @@
       <c r="F229" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G229" s="10"/>
+      <c r="G229" s="3"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
@@ -7145,7 +7141,7 @@
       <c r="F230" s="6">
         <v>811.1</v>
       </c>
-      <c r="G230" s="9"/>
+      <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
@@ -7166,7 +7162,7 @@
       <c r="F231" s="7">
         <v>461.6</v>
       </c>
-      <c r="G231" s="10"/>
+      <c r="G231" s="3"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
@@ -7187,7 +7183,7 @@
       <c r="F232" s="6">
         <v>479.4</v>
       </c>
-      <c r="G232" s="9"/>
+      <c r="G232" s="2"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
@@ -7208,7 +7204,7 @@
       <c r="F233" s="7">
         <v>298.5</v>
       </c>
-      <c r="G233" s="10"/>
+      <c r="G233" s="3"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
@@ -7229,7 +7225,7 @@
       <c r="F234" s="6">
         <v>441.5</v>
       </c>
-      <c r="G234" s="9"/>
+      <c r="G234" s="2"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
@@ -7250,7 +7246,7 @@
       <c r="F235" s="7">
         <v>299.39999999999998</v>
       </c>
-      <c r="G235" s="10"/>
+      <c r="G235" s="3"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
@@ -7271,7 +7267,7 @@
       <c r="F236" s="6">
         <v>874.5</v>
       </c>
-      <c r="G236" s="9"/>
+      <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
@@ -7292,7 +7288,7 @@
       <c r="F237" s="7">
         <v>3.8</v>
       </c>
-      <c r="G237" s="10"/>
+      <c r="G237" s="3"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
@@ -7313,7 +7309,7 @@
       <c r="F238" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G238" s="9"/>
+      <c r="G238" s="2"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -7334,7 +7330,7 @@
       <c r="F239" s="7">
         <v>5.8</v>
       </c>
-      <c r="G239" s="10"/>
+      <c r="G239" s="3"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
@@ -7355,7 +7351,7 @@
       <c r="F240" s="6">
         <v>3.8</v>
       </c>
-      <c r="G240" s="9"/>
+      <c r="G240" s="2"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
@@ -7376,7 +7372,7 @@
       <c r="F241" s="7">
         <v>5.8</v>
       </c>
-      <c r="G241" s="10"/>
+      <c r="G241" s="3"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
@@ -7397,7 +7393,7 @@
       <c r="F242" s="6">
         <v>6.5</v>
       </c>
-      <c r="G242" s="9"/>
+      <c r="G242" s="2"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
@@ -7418,7 +7414,7 @@
       <c r="F243" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G243" s="10"/>
+      <c r="G243" s="3"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
@@ -7439,7 +7435,7 @@
       <c r="F244" s="6">
         <v>8.9</v>
       </c>
-      <c r="G244" s="9"/>
+      <c r="G244" s="2"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
@@ -7460,7 +7456,7 @@
       <c r="F245" s="7">
         <v>2.4</v>
       </c>
-      <c r="G245" s="10"/>
+      <c r="G245" s="3"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
@@ -7481,7 +7477,7 @@
       <c r="F246" s="6">
         <v>3.2</v>
       </c>
-      <c r="G246" s="9"/>
+      <c r="G246" s="2"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
@@ -7502,7 +7498,7 @@
       <c r="F247" s="7">
         <v>2.8</v>
       </c>
-      <c r="G247" s="10"/>
+      <c r="G247" s="3"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
@@ -7518,12 +7514,12 @@
         <v>23</v>
       </c>
       <c r="E248" s="6">
-        <v>5099</v>
+        <v>3099</v>
       </c>
       <c r="F248" s="6">
-        <v>1070.8</v>
-      </c>
-      <c r="G248" s="9"/>
+        <v>870.8</v>
+      </c>
+      <c r="G248" s="2"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
@@ -7539,12 +7535,12 @@
         <v>23</v>
       </c>
       <c r="E249" s="7">
-        <v>5099</v>
+        <v>3099</v>
       </c>
       <c r="F249" s="7">
         <v>1478.7</v>
       </c>
-      <c r="G249" s="10"/>
+      <c r="G249" s="3"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
@@ -7565,7 +7561,7 @@
       <c r="F250" s="6">
         <v>374.7</v>
       </c>
-      <c r="G250" s="9"/>
+      <c r="G250" s="2"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
@@ -7586,7 +7582,7 @@
       <c r="F251" s="7">
         <v>137.30000000000001</v>
       </c>
-      <c r="G251" s="10"/>
+      <c r="G251" s="3"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
@@ -7607,7 +7603,7 @@
       <c r="F252" s="6">
         <v>103.7</v>
       </c>
-      <c r="G252" s="9"/>
+      <c r="G252" s="2"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
@@ -7628,7 +7624,7 @@
       <c r="F253" s="7">
         <v>101.2</v>
       </c>
-      <c r="G253" s="10"/>
+      <c r="G253" s="3"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
@@ -7649,7 +7645,7 @@
       <c r="F254" s="6">
         <v>115.3</v>
       </c>
-      <c r="G254" s="9"/>
+      <c r="G254" s="2"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
@@ -7670,7 +7666,7 @@
       <c r="F255" s="7">
         <v>65.8</v>
       </c>
-      <c r="G255" s="10"/>
+      <c r="G255" s="3"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
@@ -7691,7 +7687,7 @@
       <c r="F256" s="6">
         <v>239.8</v>
       </c>
-      <c r="G256" s="9"/>
+      <c r="G256" s="2"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
@@ -7712,7 +7708,7 @@
       <c r="F257" s="7">
         <v>637.70000000000005</v>
       </c>
-      <c r="G257" s="10"/>
+      <c r="G257" s="3"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
@@ -7733,7 +7729,7 @@
       <c r="F258" s="6">
         <v>419.8</v>
       </c>
-      <c r="G258" s="9"/>
+      <c r="G258" s="2"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
@@ -7754,7 +7750,7 @@
       <c r="F259" s="7">
         <v>972</v>
       </c>
-      <c r="G259" s="10"/>
+      <c r="G259" s="3"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
@@ -7775,7 +7771,7 @@
       <c r="F260" s="6">
         <v>269.7</v>
       </c>
-      <c r="G260" s="9"/>
+      <c r="G260" s="2"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
@@ -7796,7 +7792,7 @@
       <c r="F261" s="7">
         <v>154</v>
       </c>
-      <c r="G261" s="10"/>
+      <c r="G261" s="3"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
@@ -7817,7 +7813,7 @@
       <c r="F262" s="6">
         <v>114</v>
       </c>
-      <c r="G262" s="9"/>
+      <c r="G262" s="2"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
@@ -7838,7 +7834,7 @@
       <c r="F263" s="7">
         <v>104.7</v>
       </c>
-      <c r="G263" s="10"/>
+      <c r="G263" s="3"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
@@ -7859,7 +7855,7 @@
       <c r="F264" s="6">
         <v>80</v>
       </c>
-      <c r="G264" s="9"/>
+      <c r="G264" s="2"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
@@ -7880,7 +7876,7 @@
       <c r="F265" s="7">
         <v>86.1</v>
       </c>
-      <c r="G265" s="10"/>
+      <c r="G265" s="3"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
@@ -7901,7 +7897,7 @@
       <c r="F266" s="6">
         <v>999.8</v>
       </c>
-      <c r="G266" s="9"/>
+      <c r="G266" s="2"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
@@ -7922,7 +7918,7 @@
       <c r="F267" s="7">
         <v>539.70000000000005</v>
       </c>
-      <c r="G267" s="10"/>
+      <c r="G267" s="3"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
@@ -7943,7 +7939,7 @@
       <c r="F268" s="6">
         <v>24</v>
       </c>
-      <c r="G268" s="9"/>
+      <c r="G268" s="2"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
@@ -7964,7 +7960,7 @@
       <c r="F269" s="7">
         <v>45</v>
       </c>
-      <c r="G269" s="10"/>
+      <c r="G269" s="3"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
@@ -7985,7 +7981,7 @@
       <c r="F270" s="6">
         <v>26.7</v>
       </c>
-      <c r="G270" s="9"/>
+      <c r="G270" s="2"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
@@ -8006,7 +8002,7 @@
       <c r="F271" s="7">
         <v>29.8</v>
       </c>
-      <c r="G271" s="10"/>
+      <c r="G271" s="3"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
@@ -8027,7 +8023,7 @@
       <c r="F272" s="6">
         <v>17.3</v>
       </c>
-      <c r="G272" s="9"/>
+      <c r="G272" s="2"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
@@ -8048,7 +8044,7 @@
       <c r="F273" s="7">
         <v>28.7</v>
       </c>
-      <c r="G273" s="10"/>
+      <c r="G273" s="3"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
@@ -8069,7 +8065,7 @@
       <c r="F274" s="6">
         <v>39.799999999999997</v>
       </c>
-      <c r="G274" s="9"/>
+      <c r="G274" s="2"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
@@ -8090,7 +8086,7 @@
       <c r="F275" s="7">
         <v>1399.8</v>
       </c>
-      <c r="G275" s="10"/>
+      <c r="G275" s="3"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
@@ -8111,7 +8107,7 @@
       <c r="F276" s="6">
         <v>161</v>
       </c>
-      <c r="G276" s="9"/>
+      <c r="G276" s="2"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
@@ -8132,7 +8128,7 @@
       <c r="F277" s="7">
         <v>334.3</v>
       </c>
-      <c r="G277" s="10"/>
+      <c r="G277" s="3"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
@@ -8153,7 +8149,7 @@
       <c r="F278" s="6">
         <v>164</v>
       </c>
-      <c r="G278" s="9"/>
+      <c r="G278" s="2"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
@@ -8174,7 +8170,7 @@
       <c r="F279" s="7">
         <v>368</v>
       </c>
-      <c r="G279" s="10"/>
+      <c r="G279" s="3"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
@@ -8195,7 +8191,7 @@
       <c r="F280" s="6">
         <v>244</v>
       </c>
-      <c r="G280" s="9"/>
+      <c r="G280" s="2"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
@@ -8216,7 +8212,7 @@
       <c r="F281" s="7">
         <v>386.6</v>
       </c>
-      <c r="G281" s="10"/>
+      <c r="G281" s="3"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
@@ -8237,7 +8233,7 @@
       <c r="F282" s="6">
         <v>49.8</v>
       </c>
-      <c r="G282" s="9"/>
+      <c r="G282" s="2"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
@@ -8258,7 +8254,7 @@
       <c r="F283" s="7">
         <v>1079.7</v>
       </c>
-      <c r="G283" s="10"/>
+      <c r="G283" s="3"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
@@ -8279,7 +8275,7 @@
       <c r="F284" s="6">
         <v>299.8</v>
       </c>
-      <c r="G284" s="9"/>
+      <c r="G284" s="2"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
@@ -8300,7 +8296,7 @@
       <c r="F285" s="7">
         <v>439.8</v>
       </c>
-      <c r="G285" s="10"/>
+      <c r="G285" s="3"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
@@ -8321,7 +8317,7 @@
       <c r="F286" s="6">
         <v>2159.6999999999998</v>
       </c>
-      <c r="G286" s="9"/>
+      <c r="G286" s="2"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
@@ -8342,7 +8338,7 @@
       <c r="F287" s="7">
         <v>455</v>
       </c>
-      <c r="G287" s="10"/>
+      <c r="G287" s="3"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
@@ -8363,7 +8359,7 @@
       <c r="F288" s="6">
         <v>352</v>
       </c>
-      <c r="G288" s="9"/>
+      <c r="G288" s="2"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
@@ -8384,7 +8380,7 @@
       <c r="F289" s="7">
         <v>11.9</v>
       </c>
-      <c r="G289" s="10"/>
+      <c r="G289" s="3"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
@@ -8405,7 +8401,7 @@
       <c r="F290" s="6">
         <v>3.8</v>
       </c>
-      <c r="G290" s="9"/>
+      <c r="G290" s="2"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
@@ -8426,7 +8422,7 @@
       <c r="F291" s="7">
         <v>2.1</v>
       </c>
-      <c r="G291" s="10"/>
+      <c r="G291" s="3"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
@@ -8447,7 +8443,7 @@
       <c r="F292" s="6">
         <v>72.5</v>
       </c>
-      <c r="G292" s="9"/>
+      <c r="G292" s="2"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
@@ -8468,7 +8464,7 @@
       <c r="F293" s="7">
         <v>33</v>
       </c>
-      <c r="G293" s="10"/>
+      <c r="G293" s="3"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
@@ -8489,7 +8485,7 @@
       <c r="F294" s="6">
         <v>55</v>
       </c>
-      <c r="G294" s="9"/>
+      <c r="G294" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F294" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
